--- a/docs/WIP/Sample (IL, NC, SC).xlsx
+++ b/docs/WIP/Sample (IL, NC, SC).xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10703"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/docs/WIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45506678-3D59-0647-B13F-AB179E9C78E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91023913-2633-3843-9F21-66B18C96D4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="9220" windowWidth="27300" windowHeight="16940" xr2:uid="{A9B0743B-4CF9-3240-8DF8-FFA967E4AB0A}"/>
+    <workbookView xWindow="1500" yWindow="1060" windowWidth="27300" windowHeight="16940" xr2:uid="{A9B0743B-4CF9-3240-8DF8-FFA967E4AB0A}"/>
   </bookViews>
   <sheets>
-    <sheet name="IL" sheetId="4" r:id="rId1"/>
-    <sheet name="NC" sheetId="3" r:id="rId2"/>
-    <sheet name="SC" sheetId="2" r:id="rId3"/>
+    <sheet name="Example" sheetId="5" r:id="rId1"/>
+    <sheet name="IL" sheetId="4" r:id="rId2"/>
+    <sheet name="NC" sheetId="3" r:id="rId3"/>
+    <sheet name="SC" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="IL2022_metrics" localSheetId="0">IL!$A$1:$N$20</definedName>
-    <definedName name="NC2022_metrics" localSheetId="1">NC!$A$1:$N$20</definedName>
-    <definedName name="SC2022_metrics" localSheetId="2">SC!$A$1:$N$20</definedName>
+    <definedName name="IL2022_metrics" localSheetId="1">IL!$A$1:$N$20</definedName>
+    <definedName name="NC2022_metrics" localSheetId="2">NC!$A$1:$N$20</definedName>
+    <definedName name="SC2022_metrics" localSheetId="3">SC!$A$1:$N$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
   <si>
     <t>composite</t>
   </si>
@@ -303,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -320,11 +321,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,20 +649,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D005CC-959F-074E-B6D7-D4F717FEEB88}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17">
+        <v>-0.119517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
+        <v>-0.124607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-0.103658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16">
+        <v>-0.13012599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-9.5044000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-9.0412000000000006E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-0.107027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-0.10847900000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16">
+        <v>6.483E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16">
+        <v>-5.9762999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16">
+        <v>-1.1037999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.101752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-1.702607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F1B2E0-6996-3B4F-8A02-4E586F40057C}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="A1:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="17"/>
+    <col min="2" max="9" width="10.83203125" style="4"/>
     <col min="10" max="10" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -672,28 +796,28 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -719,28 +843,28 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="4">
         <v>0.58168600000000004</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="4">
         <v>0.58658999999999994</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <v>0.59020099999999998</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <v>0.58564899999999998</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="4">
         <v>0.57967599999999997</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="4">
         <v>0.58408899999999997</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4">
         <v>0.56138600000000005</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="4">
         <v>0.58126500000000003</v>
       </c>
       <c r="J2" s="4">
@@ -763,14 +887,14 @@
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8">
         <v>9.5525882352941183E-3</v>
       </c>
@@ -792,14 +916,14 @@
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -811,28 +935,28 @@
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="4">
         <v>0.78288899999999995</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="4">
         <v>0.79778700000000002</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="4">
         <v>0.78405999999999998</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="4">
         <v>0.80142400000000003</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="4">
         <v>0.75439599999999996</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="4">
         <v>0.75858999999999999</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="4">
         <v>0.72979899999999998</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="4">
         <v>0.77100900000000006</v>
       </c>
       <c r="J5" s="4">
@@ -875,14 +999,14 @@
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8">
         <v>6.9417425742574279E-3</v>
       </c>
@@ -904,14 +1028,14 @@
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -923,28 +1047,28 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="4">
         <v>-0.119517</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="4">
         <v>-0.124607</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="4">
         <v>-0.103658</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>-0.13012599999999999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="4">
         <v>-9.5044000000000003E-2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="4">
         <v>-9.0412000000000006E-2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="4">
         <v>-0.107027</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="4">
         <v>-0.10847900000000001</v>
       </c>
       <c r="J9" s="4">
@@ -967,28 +1091,28 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="4">
         <v>-0.20120299999999999</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="4">
         <v>-0.211197</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="4">
         <v>-0.193859</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>-0.21577499999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="4">
         <v>-0.17471999999999999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="4">
         <v>-0.17450099999999999</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="4">
         <v>-0.16841300000000001</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="4">
         <v>-0.189744</v>
       </c>
       <c r="J10" s="4">
@@ -1011,28 +1135,28 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="4">
         <v>-0.14333199999999999</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="4">
         <v>-0.19525300000000001</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="4">
         <v>-0.13530500000000001</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>-0.209012</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="4">
         <v>-6.5005999999999994E-2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="4">
         <v>-7.2592000000000004E-2</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="4">
         <v>-4.7885999999999998E-2</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="4">
         <v>-0.120842</v>
       </c>
       <c r="J11" s="4">
@@ -1055,28 +1179,28 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="4">
         <v>-3.0394999999999998E-2</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="4">
         <v>-6.5994999999999998E-2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="4">
         <v>-3.3023999999999998E-2</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="4">
         <v>-5.9129000000000001E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="4">
         <v>8.9060000000000007E-3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="4">
         <v>3.6979999999999999E-3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="4">
         <v>-2.0261000000000001E-2</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="4">
         <v>-2.7633999999999999E-2</v>
       </c>
       <c r="J12" s="4">
@@ -1099,28 +1223,28 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="4">
         <v>-9.3360000000000005E-3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="4">
         <v>-2.0416E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="4">
         <v>-1.2159E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>-1.6868999999999999E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="4">
         <v>2.627E-3</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="4">
         <v>1.194E-3</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="4">
         <v>-6.548E-3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="4">
         <v>-8.6949999999999996E-3</v>
       </c>
       <c r="J13" s="4">
@@ -1143,28 +1267,28 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="4">
         <v>-2.9315999999999998E-2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="4">
         <v>-2.4271999999999998E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="4">
         <v>-2.7979E-2</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="4">
         <v>-3.0495000000000001E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="4">
         <v>-5.8129999999999996E-3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="4">
         <v>-4.6880000000000003E-3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="4">
         <v>-4.3833999999999998E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="4">
         <v>-2.2846999999999999E-2</v>
       </c>
       <c r="J14" s="4">
@@ -1187,28 +1311,28 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="4">
         <v>-2.9332E-2</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="4">
         <v>-4.1054E-2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="4">
         <v>-3.5437000000000003E-2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="4">
         <v>-3.6263999999999998E-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="4">
         <v>1.0596E-2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="4">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="4">
         <v>-2.5083999999999999E-2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="4">
         <v>-1.8606999999999999E-2</v>
       </c>
       <c r="J15" s="4">
@@ -1231,28 +1355,28 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="4">
         <v>1.4576E-2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="4">
         <v>8.0800000000000004E-3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="4">
         <v>6.5209999999999999E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="4">
         <v>4.6340000000000001E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="4">
         <v>2.2423999999999999E-2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="4">
         <v>3.3033E-2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="4">
         <v>1.4213999999999999E-2</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="4">
         <v>1.4818E-2</v>
       </c>
       <c r="J16" s="4">
@@ -1275,28 +1399,28 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="4">
         <v>2.7865000000000001E-2</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="4">
         <v>1.064E-2</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="4">
         <v>2.1849E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="4">
         <v>2.6983E-2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="4">
         <v>6.4306000000000002E-2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="4">
         <v>5.7508999999999998E-2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="4">
         <v>2.6807000000000001E-2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="4">
         <v>3.4681999999999998E-2</v>
       </c>
       <c r="J17" s="4">
@@ -1319,28 +1443,28 @@
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>-27.316002999999998</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="14">
         <v>-33.856498999999999</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>-30.206417999999999</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <v>-31.061053999999999</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="14">
         <v>-11.190721999999999</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <v>-15.109211</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="14">
         <v>-18.491578000000001</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="14">
         <v>-23.319247000000001</v>
       </c>
       <c r="J18" s="14">
@@ -1364,28 +1488,28 @@
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="4">
         <v>3.46313</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="4">
         <v>3.4390480000000001</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="4">
         <v>3.1491929999999999</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="4">
         <v>3.5192939999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="4">
         <v>3.192882</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="4">
         <v>3.0751949999999999</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="4">
         <v>3.7435049999999999</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="4">
         <v>3.353186</v>
       </c>
       <c r="J19" s="4">
@@ -1408,28 +1532,28 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="8">
         <v>1.7084630000000001</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <v>1.1841330000000001</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>1.649149</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="8">
         <v>1.078962</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>2.377005</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="8">
         <v>2.2119219999999999</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="8">
         <v>2.963419</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="8">
         <v>1.910765</v>
       </c>
       <c r="J20" s="8">
@@ -1454,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2400D4-5F0D-494D-A97A-5921692E32B6}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -1468,7 +1592,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="17"/>
+    <col min="2" max="9" width="10.83203125" style="4"/>
     <col min="10" max="10" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1477,28 +1601,28 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1524,28 +1648,28 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="4">
         <v>0.49433300000000002</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="4">
         <v>0.49314400000000003</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <v>0.48094100000000001</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <v>0.49085200000000001</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="4">
         <v>0.47044399999999997</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="4">
         <v>0.52287499999999998</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4">
         <v>0.50124299999999999</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="4">
         <v>0.49325000000000002</v>
       </c>
       <c r="J2" s="4">
@@ -1568,14 +1692,14 @@
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8">
         <v>7.9350714285714267E-3</v>
       </c>
@@ -1597,14 +1721,14 @@
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1616,28 +1740,28 @@
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="4">
         <v>0.48244700000000001</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="4">
         <v>0.47445500000000002</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="4">
         <v>0.450154</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="4">
         <v>0.47141300000000003</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="4">
         <v>0.40962900000000002</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="4">
         <v>0.56120999999999999</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="4">
         <v>0.50139199999999995</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="4">
         <v>0.47804200000000002</v>
       </c>
       <c r="J5" s="4">
@@ -1680,14 +1804,14 @@
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8">
         <v>2.7066732673267312E-3</v>
       </c>
@@ -1709,14 +1833,14 @@
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1728,28 +1852,28 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="4">
         <v>6.2189999999999997E-3</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="4">
         <v>1.1833E-2</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="4">
         <v>1.1728000000000001E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>1.0291E-2</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="4">
         <v>3.1259000000000002E-2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="4">
         <v>-1.546E-2</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="4">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="4">
         <v>8.4569999999999992E-3</v>
       </c>
       <c r="J9" s="4">
@@ -1772,28 +1896,28 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="4">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="4">
         <v>1.8689000000000001E-2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="4">
         <v>3.0786999999999998E-2</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>1.9439000000000001E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="4">
         <v>6.0815000000000001E-2</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="4">
         <v>-3.8335000000000001E-2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="4">
         <v>-1.4899999999999999E-4</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="4">
         <v>1.5207999999999999E-2</v>
       </c>
       <c r="J10" s="4">
@@ -1816,28 +1940,28 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="4">
         <v>2.6689999999999999E-3</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="4">
         <v>8.8859999999999998E-3</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="4">
         <v>6.6140000000000001E-3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>4.3470000000000002E-3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="4">
         <v>6.5380000000000004E-3</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="4">
         <v>3.2070000000000002E-3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="4">
         <v>1.879E-3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="4">
         <v>5.2449999999999997E-3</v>
       </c>
       <c r="J11" s="4">
@@ -1860,28 +1984,28 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="4">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="4">
         <v>8.8109999999999994E-3</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="4">
         <v>5.1710000000000002E-3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="4">
         <v>4.0480000000000004E-3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="4">
         <v>1.585E-3</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="4">
         <v>1.676E-3</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="4">
         <v>1.8270000000000001E-3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="4">
         <v>3.8530000000000001E-3</v>
       </c>
       <c r="J12" s="4">
@@ -1904,28 +2028,28 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="4">
         <v>1.0089999999999999E-3</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="4">
         <v>3.4659999999999999E-3</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="4">
         <v>2.0240000000000002E-3</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="4">
         <v>4.8299999999999998E-4</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="4">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="4">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="4">
         <v>1.451E-3</v>
       </c>
       <c r="J13" s="4">
@@ -1948,28 +2072,28 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="4">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="4">
         <v>8.4019999999999997E-3</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="4">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="4">
         <v>3.297E-3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="4">
         <v>-4.4320000000000002E-3</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="4">
         <v>3.7309999999999999E-3</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="4">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="4">
         <v>2.4290000000000002E-3</v>
       </c>
       <c r="J14" s="4">
@@ -1992,28 +2116,28 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="4">
         <v>1.1770000000000001E-3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="4">
         <v>3.3279999999999998E-3</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="4">
         <v>4.679E-3</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="4">
         <v>1.957E-3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="4">
         <v>4.5570000000000003E-3</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="4">
         <v>5.2909999999999997E-3</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="4">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="4">
         <v>3.4380000000000001E-3</v>
       </c>
       <c r="J15" s="4">
@@ -2036,28 +2160,28 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="4">
         <v>7.1349999999999998E-3</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="4">
         <v>9.0500000000000008E-3</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="4">
         <v>8.3809999999999996E-3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="4">
         <v>8.8140000000000007E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="4">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="4">
         <v>4.4010000000000004E-3</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="4">
         <v>6.0390000000000001E-3</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="4">
         <v>7.3179999999999999E-3</v>
       </c>
       <c r="J16" s="4">
@@ -2080,28 +2204,28 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="4">
         <v>-5.574E-3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="4">
         <v>-3.823E-3</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="4">
         <v>-1.9359000000000001E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="4">
         <v>-8.9119999999999998E-3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="4">
         <v>-3.125E-2</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="4">
         <v>2.2841E-2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="4">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="4">
         <v>-6.5319999999999996E-3</v>
       </c>
       <c r="J17" s="4">
@@ -2124,28 +2248,28 @@
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>0.18129799999999999</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="14">
         <v>1.229868</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>-2.5586999999999999E-2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <v>0.29150900000000002</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="14">
         <v>-0.152085</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <v>6.1559999999999997E-2</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="14">
         <v>0.161607</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="14">
         <v>0.26114500000000002</v>
       </c>
       <c r="J18" s="14">
@@ -2169,28 +2293,28 @@
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="4">
         <v>3.097378</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="4">
         <v>3.7258849999999999</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="4">
         <v>2.6153559999999998</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="4">
         <v>3.1249959999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="4">
         <v>3.0576099999999999</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="4">
         <v>2.6758380000000002</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="4">
         <v>1.119891</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="4">
         <v>2.719929</v>
       </c>
       <c r="J19" s="4">
@@ -2213,28 +2337,28 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="8">
         <v>2.6264539999999998</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <v>2.4298670000000002</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>2.2683369999999998</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="8">
         <v>2.6498569999999999</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>2.8363930000000002</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="8">
         <v>2.816017</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="8">
         <v>2.6311810000000002</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="8">
         <v>2.6052749999999998</v>
       </c>
       <c r="J20" s="8">
@@ -2260,7 +2384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116E8F09-3F14-BF4C-ADEC-85316F09A0AA}">
   <dimension ref="A1:O20"/>
   <sheetViews>
@@ -2274,7 +2398,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.83203125" style="17"/>
+    <col min="2" max="9" width="10.83203125" style="4"/>
     <col min="10" max="10" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -2283,28 +2407,28 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2330,28 +2454,28 @@
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="4">
         <v>0.43163400000000002</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="4">
         <v>0.44073400000000001</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="4">
         <v>0.42539700000000003</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="4">
         <v>0.44792100000000001</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="4">
         <v>0.37877</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="4">
         <v>0.459789</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="4">
         <v>0.43753799999999998</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="4">
         <v>0.43169200000000002</v>
       </c>
       <c r="J2" s="4">
@@ -2374,14 +2498,14 @@
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8">
         <v>1.2083999999999999E-2</v>
       </c>
@@ -2403,14 +2527,14 @@
       <c r="A4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -2422,28 +2546,28 @@
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="4">
         <v>0.156862</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="4">
         <v>0.17921000000000001</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="4">
         <v>0.14992900000000001</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="4">
         <v>0.185863</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="4">
         <v>0.14254500000000001</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="4">
         <v>0.20849799999999999</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="4">
         <v>0.165213</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="4">
         <v>0.171876</v>
       </c>
       <c r="J5" s="4">
@@ -2486,14 +2610,14 @@
       <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="8">
         <v>2.9796930693069298E-3</v>
       </c>
@@ -2515,14 +2639,14 @@
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -2534,28 +2658,28 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="4">
         <v>0.20640600000000001</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="4">
         <v>0.20225799999999999</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="4">
         <v>0.20086499999999999</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="4">
         <v>0.209979</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="4">
         <v>0.114995</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="4">
         <v>0.21107999999999999</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="4">
         <v>0.20986299999999999</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="4">
         <v>0.19150700000000001</v>
       </c>
       <c r="J9" s="4">
@@ -2578,28 +2702,28 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="4">
         <v>0.27477200000000002</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="4">
         <v>0.26152399999999998</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="4">
         <v>0.27546799999999999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="4">
         <v>0.26205800000000001</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="4">
         <v>0.23622499999999999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="4">
         <v>0.25129099999999999</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="4">
         <v>0.27232499999999998</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="4">
         <v>0.25981500000000002</v>
       </c>
       <c r="J10" s="4">
@@ -2622,28 +2746,28 @@
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="4">
         <v>0.28562199999999999</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="4">
         <v>0.218114</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="4">
         <v>0.31160100000000002</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="4">
         <v>0.21510000000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="4">
         <v>0.344416</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="4">
         <v>0.19442000000000001</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="4">
         <v>0.26363799999999998</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="4">
         <v>0.25788100000000003</v>
       </c>
       <c r="J11" s="4">
@@ -2666,28 +2790,28 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="4">
         <v>0.115781</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="4">
         <v>9.2948000000000003E-2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="4">
         <v>0.138707</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="4">
         <v>9.8710999999999993E-2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="4">
         <v>0.124024</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="4">
         <v>0.115971</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="4">
         <v>0.117105</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="4">
         <v>0.114578</v>
       </c>
       <c r="J12" s="4">
@@ -2710,28 +2834,28 @@
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="4">
         <v>1.6982000000000001E-2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="4">
         <v>1.4463E-2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="4">
         <v>2.0295000000000001E-2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="4">
         <v>1.4888E-2</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="4">
         <v>1.8477E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="4">
         <v>1.787E-2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="4">
         <v>1.7821E-2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="4">
         <v>1.7302000000000001E-2</v>
       </c>
       <c r="J13" s="4">
@@ -2754,28 +2878,28 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="4">
         <v>1.1755E-2</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="4">
         <v>2.3785000000000001E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="4">
         <v>3.774E-3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="4">
         <v>3.7977999999999998E-2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="4">
         <v>-6.3483999999999999E-2</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="4">
         <v>7.0611999999999994E-2</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="4">
         <v>2.784E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="4">
         <v>1.6750999999999999E-2</v>
       </c>
       <c r="J14" s="4">
@@ -2798,28 +2922,28 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="4">
         <v>4.0469999999999999E-2</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="4">
         <v>3.4403000000000003E-2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="4">
         <v>4.6955999999999998E-2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="4">
         <v>3.4831000000000001E-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="4">
         <v>4.7232000000000003E-2</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="4">
         <v>3.7658999999999998E-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="4">
         <v>4.1161999999999997E-2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="4">
         <v>4.0374E-2</v>
       </c>
       <c r="J15" s="4">
@@ -2842,28 +2966,28 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="4">
         <v>2.5676000000000001E-2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="4">
         <v>3.2826000000000001E-2</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="4">
         <v>2.2890000000000001E-2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="4">
         <v>2.7399E-2</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="4">
         <v>2.0216999999999999E-2</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="4">
         <v>3.2757000000000001E-2</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="4">
         <v>2.2941E-2</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="4">
         <v>2.6505000000000001E-2</v>
       </c>
       <c r="J16" s="4">
@@ -2886,28 +3010,28 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="4">
         <v>3.1689000000000002E-2</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="4">
         <v>2.2502000000000001E-2</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="4">
         <v>3.6421000000000002E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="4">
         <v>2.8535999999999999E-2</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="4">
         <v>3.1408999999999999E-2</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="4">
         <v>3.8174E-2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="4">
         <f>AVERAGE(C17:H17)</f>
         <v>3.1408400000000003E-2</v>
       </c>
@@ -2936,28 +3060,28 @@
       <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="14">
         <v>46.250948000000001</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="14">
         <v>39.798617</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="14">
         <v>48.545639000000001</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <v>39.381089000000003</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="14">
         <v>35.542309000000003</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="14">
         <v>45.790868000000003</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="14">
         <f>AVERAGE(C18:H18)</f>
         <v>41.811704399999996</v>
       </c>
@@ -2987,28 +3111,28 @@
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="4">
         <v>5.0191400000000002</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="4">
         <v>5.4127239999999999</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="4">
         <v>4.6924539999999997</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="4">
         <v>6.0319289999999999</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="4">
         <v>2.9485670000000002</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="4">
         <v>7.2493100000000004</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="4">
         <v>5.3598520000000001</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="4">
         <v>5.2824730000000004</v>
       </c>
       <c r="J19" s="4">
@@ -3031,28 +3155,28 @@
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="8">
         <v>0.84130300000000002</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="8">
         <v>1.7324630000000001</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="8">
         <v>0.51566999999999996</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="8">
         <v>1.901662</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="8">
         <v>0.107553</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="8">
         <v>2.414317</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="8">
         <v>1.139076</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="8">
         <v>1.30179</v>
       </c>
       <c r="J20" s="8">
